--- a/data/trans_orig/Q19B_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Dificultad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>34.63069045985502</v>
+        <v>35.14708187475155</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>40.35300904384441</v>
+        <v>39.98642102176216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30.94026980137378</v>
+        <v>31.31314021928366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44.89590514605965</v>
+        <v>44.89323583430804</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>35.69086140803707</v>
+        <v>36.25117723484406</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>28.41740685967494</v>
+        <v>28.51216213414881</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>41.87139226308452</v>
+        <v>42.04842201666373</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>39.19669629786648</v>
+        <v>39.38359755944651</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.80288277604926</v>
+        <v>30.70725813608944</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>46.22971864118178</v>
+        <v>46.86328559420826</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>51.13764726635807</v>
+        <v>50.986197901881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41.07102652470969</v>
+        <v>41.23799231617765</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57.76077108076286</v>
+        <v>57.72108482982959</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>45.50308447401815</v>
+        <v>45.96688532797723</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>35.46779026367849</v>
+        <v>35.7306654808589</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>51.02145034729998</v>
+        <v>51.63600145273189</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>46.16490470260537</v>
+        <v>46.74735195324308</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>36.92320619892607</v>
+        <v>36.58934028706447</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>37.01713316544204</v>
+        <v>36.9804003490444</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>39.51373479775841</v>
+        <v>39.90813191837765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.18467037278725</v>
+        <v>28.96398976066571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34.92787934407605</v>
+        <v>35.13246369294109</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>36.15879689421767</v>
+        <v>36.09118497466129</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>24.42970432035472</v>
+        <v>24.66402111216182</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>37.16136833497787</v>
+        <v>37.29595179885707</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>39.06553663415604</v>
+        <v>38.77842350574051</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>27.57063839529492</v>
+        <v>27.52498471078339</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45.93306580053873</v>
+        <v>47.01133791885956</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>48.29942682748203</v>
+        <v>48.93816034600528</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37.36155290364385</v>
+        <v>37.24418568487992</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43.67177736492788</v>
+        <v>43.64898188318789</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>45.37033061012639</v>
+        <v>44.84489022793772</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>32.34528716239947</v>
+        <v>32.51514150904434</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>43.50930571117498</v>
+        <v>43.91034148008602</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>44.98233777033312</v>
+        <v>44.79494841303574</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>33.11337947086691</v>
+        <v>33.42341453126744</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>30.71102000332215</v>
+        <v>31.20418589689964</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>37.71484444697639</v>
+        <v>37.32938115537239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31.95154585111123</v>
+        <v>32.33716875528581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29.56326745127988</v>
+        <v>29.65984172923892</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>36.79415517201046</v>
+        <v>37.44792001055638</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.04705870701709</v>
+        <v>23.76118887061747</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>31.2994784129414</v>
+        <v>31.2357802481821</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>38.6373751845472</v>
+        <v>38.58776641947167</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>29.43194614014472</v>
+        <v>29.23323363170223</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>37.79914643416872</v>
+        <v>37.80332915996432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>48.59542779483973</v>
+        <v>47.99413717424399</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46.64090415336199</v>
+        <v>46.23883485601689</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37.7802248396936</v>
+        <v>37.76096041696877</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>50.61672807044196</v>
+        <v>50.13200576213328</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>34.49790282465403</v>
+        <v>35.13552912418252</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>36.39126840061898</v>
+        <v>36.03438084517384</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>47.1964297505229</v>
+        <v>47.05663163889188</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>38.09783734466991</v>
+        <v>38.71503321193463</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>25.47311119683512</v>
+        <v>25.26873457347996</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>32.21025152175849</v>
+        <v>32.65936755896779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31.88665244761577</v>
+        <v>32.18477911538179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21.27018680939361</v>
+        <v>21.57641053155848</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>25.53434140761427</v>
+        <v>25.42542753706579</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>22.03323614417908</v>
+        <v>21.94649025029384</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>24.9096891524563</v>
+        <v>24.82873645521373</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>30.44925585173138</v>
+        <v>30.58827387540051</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>28.28544339324449</v>
+        <v>28.52846906803521</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>36.83779693804648</v>
+        <v>38.78624242255685</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>48.90383579331321</v>
+        <v>48.63834223569572</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>45.70949075294256</v>
+        <v>45.49804072479483</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35.06157050119339</v>
+        <v>34.59110008083277</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>39.78408441573159</v>
+        <v>39.8494441155296</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>33.21665425633256</v>
+        <v>32.77210731809863</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>33.56829299740473</v>
+        <v>33.70582749086517</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>41.37249836678507</v>
+        <v>40.70848714233801</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>37.34749863193563</v>
+        <v>37.58287066668336</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>35.01033989702491</v>
+        <v>34.84184095849206</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>40.70144975384677</v>
+        <v>40.4964988919527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32.96903385247519</v>
+        <v>33.22817448650454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37.1057120412918</v>
+        <v>36.99603925236946</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>37.00508291594473</v>
+        <v>37.03116856499239</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.67112700931401</v>
+        <v>26.63849234812974</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>36.59369915250063</v>
+        <v>36.722695166404</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>39.30757007783701</v>
+        <v>39.48551967919887</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>30.52630952800293</v>
+        <v>30.5640481325425</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>39.83306637755103</v>
+        <v>39.66006143184455</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>46.04336785157084</v>
+        <v>45.92948608467064</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38.69242893130353</v>
+        <v>38.70525828306207</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42.47919294276197</v>
+        <v>42.72213228616057</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>42.35812683619681</v>
+        <v>42.19287985713937</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.15856442311838</v>
+        <v>30.90451446724602</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>40.28544979439886</v>
+        <v>40.23667257819731</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>43.18144724588549</v>
+        <v>43.20651664350763</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>34.01870766882674</v>
+        <v>34.15271039490679</v>
       </c>
     </row>
     <row r="19">
